--- a/Spring 개발 기능 정리.xlsx
+++ b/Spring 개발 기능 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>클릭시 해당 로우 구하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>var rowCount = $('#BizDailyMaster tbody tr').length;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 로우 단위로 For문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$('#BizDailyExecuter tr').each(function(index, item) {
+                    if (!this.rowIndex) return; // skip first row
+                    var exec_user = $('#BizDailyExecuter tr:eq(' + index + ')&gt;td:eq(5)').text();
+                    //alert(exec_user)
+                    //var eqi_no = $(this).find('#id_eqi_no').val();
+                    var add_user = exec_user.toString()
+                    all_reg_user.push(add_user)
+                });</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -433,6 +448,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="2:3" ht="132" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spring 개발 기능 정리.xlsx
+++ b/Spring 개발 기능 정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>클릭시 해당 로우 구하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,12 +73,20 @@
                 });</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>테이블 리셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$('#userlisttable &gt; tbody:last').empty();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +101,11 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,12 +130,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,19 +420,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="147.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="33">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -424,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -432,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -440,7 +456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -448,16 +464,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="132" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="132">
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>